--- a/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table19.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/Table19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb138/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AB8061-4AE1-6A46-A4AF-65F703FD2661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7917EFC-EA9B-B344-9C83-0B58FFFA31DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19460" yWindow="460" windowWidth="16620" windowHeight="25180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,13 +509,12 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -1358,10 +1357,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61" s="2">
         <v>1925274</v>
